--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tnc-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tnc-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,22 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Tnc</t>
+  </si>
+  <si>
+    <t>Itgb1</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Tnc</t>
-  </si>
-  <si>
-    <t>Itgb1</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.215822</v>
+        <v>21.07725533333333</v>
       </c>
       <c r="H2">
-        <v>15.647466</v>
+        <v>63.231766</v>
       </c>
       <c r="I2">
-        <v>0.04031814991753075</v>
+        <v>0.1567570073990861</v>
       </c>
       <c r="J2">
-        <v>0.04031814991753075</v>
+        <v>0.1567570073990861</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N2">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O2">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P2">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q2">
-        <v>494.459148442522</v>
+        <v>3727.620043496186</v>
       </c>
       <c r="R2">
-        <v>4450.132335982697</v>
+        <v>33548.58039146567</v>
       </c>
       <c r="S2">
-        <v>0.006781365944311183</v>
+        <v>0.04184958594682084</v>
       </c>
       <c r="T2">
-        <v>0.006781365944311185</v>
+        <v>0.04184958594682084</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.215822</v>
+        <v>21.07725533333333</v>
       </c>
       <c r="H3">
-        <v>15.647466</v>
+        <v>63.231766</v>
       </c>
       <c r="I3">
-        <v>0.04031814991753075</v>
+        <v>0.1567570073990861</v>
       </c>
       <c r="J3">
-        <v>0.04031814991753075</v>
+        <v>0.1567570073990861</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>436.924088</v>
       </c>
       <c r="O3">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P3">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q3">
-        <v>759.6394235067786</v>
+        <v>3069.720188019934</v>
       </c>
       <c r="R3">
-        <v>6836.754811561008</v>
+        <v>27627.48169217941</v>
       </c>
       <c r="S3">
-        <v>0.01041823764966474</v>
+        <v>0.03446341562235531</v>
       </c>
       <c r="T3">
-        <v>0.01041823764966474</v>
+        <v>0.03446341562235531</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,14 +652,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
         <v>3</v>
       </c>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.215822</v>
+        <v>21.07725533333333</v>
       </c>
       <c r="H4">
-        <v>15.647466</v>
+        <v>63.231766</v>
       </c>
       <c r="I4">
-        <v>0.04031814991753075</v>
+        <v>0.1567570073990861</v>
       </c>
       <c r="J4">
-        <v>0.04031814991753075</v>
+        <v>0.1567570073990861</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N4">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O4">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P4">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q4">
-        <v>379.5865088745547</v>
+        <v>1771.018768138938</v>
       </c>
       <c r="R4">
-        <v>3416.278579870992</v>
+        <v>15939.16891325044</v>
       </c>
       <c r="S4">
-        <v>0.005205920513979743</v>
+        <v>0.01988303563287755</v>
       </c>
       <c r="T4">
-        <v>0.005205920513979743</v>
+        <v>0.01988303563287755</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.215822</v>
+        <v>21.07725533333333</v>
       </c>
       <c r="H5">
-        <v>15.647466</v>
+        <v>63.231766</v>
       </c>
       <c r="I5">
-        <v>0.04031814991753075</v>
+        <v>0.1567570073990861</v>
       </c>
       <c r="J5">
-        <v>0.04031814991753075</v>
+        <v>0.1567570073990861</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N5">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O5">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P5">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q5">
-        <v>604.1793921446167</v>
+        <v>1790.06548987372</v>
       </c>
       <c r="R5">
-        <v>5437.61452930155</v>
+        <v>16110.58940886348</v>
       </c>
       <c r="S5">
-        <v>0.008286147737481708</v>
+        <v>0.02009687111206909</v>
       </c>
       <c r="T5">
-        <v>0.008286147737481708</v>
+        <v>0.02009687111206909</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.215822</v>
+        <v>21.07725533333333</v>
       </c>
       <c r="H6">
-        <v>15.647466</v>
+        <v>63.231766</v>
       </c>
       <c r="I6">
-        <v>0.04031814991753075</v>
+        <v>0.1567570073990861</v>
       </c>
       <c r="J6">
-        <v>0.04031814991753075</v>
+        <v>0.1567570073990861</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N6">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O6">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P6">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q6">
-        <v>303.492440110292</v>
+        <v>1348.333599757043</v>
       </c>
       <c r="R6">
-        <v>2731.431960992628</v>
+        <v>12135.00239781339</v>
       </c>
       <c r="S6">
-        <v>0.004162312102430596</v>
+        <v>0.01513759509005506</v>
       </c>
       <c r="T6">
-        <v>0.004162312102430596</v>
+        <v>0.01513759509005506</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.215822</v>
+        <v>21.07725533333333</v>
       </c>
       <c r="H7">
-        <v>15.647466</v>
+        <v>63.231766</v>
       </c>
       <c r="I7">
-        <v>0.04031814991753075</v>
+        <v>0.1567570073990861</v>
       </c>
       <c r="J7">
-        <v>0.04031814991753075</v>
+        <v>0.1567570073990861</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N7">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O7">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P7">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q7">
-        <v>398.4163182602734</v>
+        <v>2255.878565753838</v>
       </c>
       <c r="R7">
-        <v>3585.74686434246</v>
+        <v>20302.90709178454</v>
       </c>
       <c r="S7">
-        <v>0.005464165969662776</v>
+        <v>0.02532650399490823</v>
       </c>
       <c r="T7">
-        <v>0.005464165969662777</v>
+        <v>0.02532650399490823</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>254.912293</v>
       </c>
       <c r="I8">
-        <v>0.6568214971673703</v>
+        <v>0.6319495836937242</v>
       </c>
       <c r="J8">
-        <v>0.6568214971673704</v>
+        <v>0.6319495836937243</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N8">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O8">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P8">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q8">
-        <v>8055.215798156112</v>
+        <v>15027.51279665939</v>
       </c>
       <c r="R8">
-        <v>72496.94218340502</v>
+        <v>135247.6151699346</v>
       </c>
       <c r="S8">
-        <v>0.1104749831401758</v>
+        <v>0.1687122563492007</v>
       </c>
       <c r="T8">
-        <v>0.1104749831401758</v>
+        <v>0.1687122563492007</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>254.912293</v>
       </c>
       <c r="I9">
-        <v>0.6568214971673703</v>
+        <v>0.6319495836937242</v>
       </c>
       <c r="J9">
-        <v>0.6568214971673704</v>
+        <v>0.6319495836937243</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>436.924088</v>
       </c>
       <c r="O9">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P9">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q9">
         <v>12375.25790433486</v>
@@ -1013,10 +1013,10 @@
         <v>111377.3211390138</v>
       </c>
       <c r="S9">
-        <v>0.1697231263065195</v>
+        <v>0.1389356783251414</v>
       </c>
       <c r="T9">
-        <v>0.1697231263065195</v>
+        <v>0.1389356783251414</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>254.912293</v>
       </c>
       <c r="I10">
-        <v>0.6568214971673703</v>
+        <v>0.6319495836937242</v>
       </c>
       <c r="J10">
-        <v>0.6568214971673704</v>
+        <v>0.6319495836937243</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N10">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O10">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P10">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q10">
-        <v>6183.829852646912</v>
+        <v>7139.678103128291</v>
       </c>
       <c r="R10">
-        <v>55654.46867382221</v>
+        <v>64257.10292815461</v>
       </c>
       <c r="S10">
-        <v>0.08480945958881231</v>
+        <v>0.08015639172528444</v>
       </c>
       <c r="T10">
-        <v>0.08480945958881232</v>
+        <v>0.08015639172528445</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,10 +1107,10 @@
         <v>254.912293</v>
       </c>
       <c r="I11">
-        <v>0.6568214971673703</v>
+        <v>0.6319495836937242</v>
       </c>
       <c r="J11">
-        <v>0.6568214971673704</v>
+        <v>0.6319495836937243</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N11">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O11">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P11">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q11">
-        <v>9842.664252149863</v>
+        <v>7216.462982290868</v>
       </c>
       <c r="R11">
-        <v>88583.97826934877</v>
+        <v>64948.16684061781</v>
       </c>
       <c r="S11">
-        <v>0.1349893279779757</v>
+        <v>0.08101844723588757</v>
       </c>
       <c r="T11">
-        <v>0.1349893279779757</v>
+        <v>0.08101844723588758</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>254.912293</v>
       </c>
       <c r="I12">
-        <v>0.6568214971673703</v>
+        <v>0.6319495836937242</v>
       </c>
       <c r="J12">
-        <v>0.6568214971673704</v>
+        <v>0.6319495836937243</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N12">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O12">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P12">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q12">
-        <v>4944.184177596531</v>
+        <v>5435.666776142421</v>
       </c>
       <c r="R12">
-        <v>44497.65759836879</v>
+        <v>48921.0009852818</v>
       </c>
       <c r="S12">
-        <v>0.06780807334633185</v>
+        <v>0.0610256413668958</v>
       </c>
       <c r="T12">
-        <v>0.06780807334633186</v>
+        <v>0.06102564136689581</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>254.912293</v>
       </c>
       <c r="I13">
-        <v>0.6568214971673703</v>
+        <v>0.6319495836937242</v>
       </c>
       <c r="J13">
-        <v>0.6568214971673704</v>
+        <v>0.6319495836937243</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N13">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O13">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P13">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q13">
-        <v>6490.585584678314</v>
+        <v>9094.339986105433</v>
       </c>
       <c r="R13">
-        <v>58415.27026210483</v>
+        <v>81849.0598749489</v>
       </c>
       <c r="S13">
-        <v>0.08901652680755506</v>
+        <v>0.1021011686913144</v>
       </c>
       <c r="T13">
-        <v>0.08901652680755509</v>
+        <v>0.1021011686913144</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.03355766666666667</v>
+        <v>27.92722666666667</v>
       </c>
       <c r="H14">
-        <v>0.100673</v>
+        <v>83.78167999999999</v>
       </c>
       <c r="I14">
-        <v>0.0002593997716082318</v>
+        <v>0.2077020185023436</v>
       </c>
       <c r="J14">
-        <v>0.0002593997716082318</v>
+        <v>0.2077020185023436</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N14">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O14">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P14">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q14">
-        <v>3.181261799907666</v>
+        <v>4939.072390383395</v>
       </c>
       <c r="R14">
-        <v>28.631356199169</v>
+        <v>44451.65151345055</v>
       </c>
       <c r="S14">
-        <v>4.363009663747726E-05</v>
+        <v>0.05545043005645359</v>
       </c>
       <c r="T14">
-        <v>4.363009663747726E-05</v>
+        <v>0.05545043005645359</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.03355766666666667</v>
+        <v>27.92722666666667</v>
       </c>
       <c r="H15">
-        <v>0.100673</v>
+        <v>83.78167999999999</v>
       </c>
       <c r="I15">
-        <v>0.0002593997716082318</v>
+        <v>0.2077020185023436</v>
       </c>
       <c r="J15">
-        <v>0.0002593997716082318</v>
+        <v>0.2077020185023436</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>436.924088</v>
       </c>
       <c r="O15">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P15">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q15">
-        <v>4.887384301247111</v>
+        <v>4067.359347234204</v>
       </c>
       <c r="R15">
-        <v>43.986458711224</v>
+        <v>36606.23412510784</v>
       </c>
       <c r="S15">
-        <v>6.70290792710269E-05</v>
+        <v>0.04566380226323544</v>
       </c>
       <c r="T15">
-        <v>6.702907927102692E-05</v>
+        <v>0.04566380226323544</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>27</v>
       </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.03355766666666667</v>
+        <v>27.92722666666667</v>
       </c>
       <c r="H16">
-        <v>0.100673</v>
+        <v>83.78167999999999</v>
       </c>
       <c r="I16">
-        <v>0.0002593997716082318</v>
+        <v>0.2077020185023436</v>
       </c>
       <c r="J16">
-        <v>0.0002593997716082318</v>
+        <v>0.2077020185023436</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N16">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O16">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P16">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q16">
-        <v>2.442191764975111</v>
+        <v>2346.588385752355</v>
       </c>
       <c r="R16">
-        <v>21.979725884776</v>
+        <v>21119.2954717712</v>
       </c>
       <c r="S16">
-        <v>3.349396227503435E-05</v>
+        <v>0.02634489330603773</v>
       </c>
       <c r="T16">
-        <v>3.349396227503435E-05</v>
+        <v>0.02634489330603773</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.03355766666666667</v>
+        <v>27.92722666666667</v>
       </c>
       <c r="H17">
-        <v>0.100673</v>
+        <v>83.78167999999999</v>
       </c>
       <c r="I17">
-        <v>0.0002593997716082318</v>
+        <v>0.2077020185023436</v>
       </c>
       <c r="J17">
-        <v>0.0002593997716082318</v>
+        <v>0.2077020185023436</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N17">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O17">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P17">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q17">
-        <v>3.887182240586111</v>
+        <v>2371.825168565485</v>
       </c>
       <c r="R17">
-        <v>34.984640165275</v>
+        <v>21346.42651708936</v>
       </c>
       <c r="S17">
-        <v>5.331159378620768E-05</v>
+        <v>0.02662822392960867</v>
       </c>
       <c r="T17">
-        <v>5.331159378620769E-05</v>
+        <v>0.02662822392960867</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.03355766666666667</v>
+        <v>27.92722666666667</v>
       </c>
       <c r="H18">
-        <v>0.100673</v>
+        <v>83.78167999999999</v>
       </c>
       <c r="I18">
-        <v>0.0002593997716082318</v>
+        <v>0.2077020185023436</v>
       </c>
       <c r="J18">
-        <v>0.0002593997716082318</v>
+        <v>0.2077020185023436</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N18">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O18">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P18">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q18">
-        <v>1.952616124759333</v>
+        <v>1786.533278037698</v>
       </c>
       <c r="R18">
-        <v>17.573545122834</v>
+        <v>16078.79950233928</v>
       </c>
       <c r="S18">
-        <v>2.677957225073986E-05</v>
+        <v>0.02005721535287444</v>
       </c>
       <c r="T18">
-        <v>2.677957225073986E-05</v>
+        <v>0.02005721535287444</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.03355766666666667</v>
+        <v>27.92722666666667</v>
       </c>
       <c r="H19">
-        <v>0.100673</v>
+        <v>83.78167999999999</v>
       </c>
       <c r="I19">
-        <v>0.0002593997716082318</v>
+        <v>0.2077020185023436</v>
       </c>
       <c r="J19">
-        <v>0.0002593997716082318</v>
+        <v>0.2077020185023436</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N19">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O19">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P19">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q19">
-        <v>2.563339393625556</v>
+        <v>2989.024474104471</v>
       </c>
       <c r="R19">
-        <v>23.07005454263</v>
+        <v>26901.22026694024</v>
       </c>
       <c r="S19">
-        <v>3.515546738774576E-05</v>
+        <v>0.03355745359413373</v>
       </c>
       <c r="T19">
-        <v>3.515546738774577E-05</v>
+        <v>0.03355745359413373</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>39.03529933333333</v>
+        <v>0.4487969999999999</v>
       </c>
       <c r="H20">
-        <v>117.105898</v>
+        <v>1.346391</v>
       </c>
       <c r="I20">
-        <v>0.3017417102418414</v>
+        <v>0.003337819537557481</v>
       </c>
       <c r="J20">
-        <v>0.3017417102418414</v>
+        <v>0.003337819537557481</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N20">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O20">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P20">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q20">
-        <v>3700.540560540399</v>
+        <v>79.37203711790799</v>
       </c>
       <c r="R20">
-        <v>33304.86504486359</v>
+        <v>714.348334061172</v>
       </c>
       <c r="S20">
-        <v>0.05075185647153214</v>
+        <v>0.0008911012523756816</v>
       </c>
       <c r="T20">
-        <v>0.05075185647153215</v>
+        <v>0.0008911012523756816</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>39.03529933333333</v>
+        <v>0.4487969999999999</v>
       </c>
       <c r="H21">
-        <v>117.105898</v>
+        <v>1.346391</v>
       </c>
       <c r="I21">
-        <v>0.3017417102418414</v>
+        <v>0.003337819537557481</v>
       </c>
       <c r="J21">
-        <v>0.3017417102418414</v>
+        <v>0.003337819537557481</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>436.924088</v>
       </c>
       <c r="O21">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P21">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q21">
-        <v>5685.154187007891</v>
+        <v>65.36340664071199</v>
       </c>
       <c r="R21">
-        <v>51166.38768307102</v>
+        <v>588.2706597664079</v>
       </c>
       <c r="S21">
-        <v>0.07797026531589196</v>
+        <v>0.0007338278773235368</v>
       </c>
       <c r="T21">
-        <v>0.07797026531589199</v>
+        <v>0.0007338278773235368</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
         <v>27</v>
       </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>39.03529933333333</v>
+        <v>0.4487969999999999</v>
       </c>
       <c r="H22">
-        <v>117.105898</v>
+        <v>1.346391</v>
       </c>
       <c r="I22">
-        <v>0.3017417102418414</v>
+        <v>0.003337819537557481</v>
       </c>
       <c r="J22">
-        <v>0.3017417102418414</v>
+        <v>0.003337819537557481</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N22">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O22">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P22">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q22">
-        <v>2840.83179924722</v>
+        <v>37.71021878866</v>
       </c>
       <c r="R22">
-        <v>25567.48619322497</v>
+        <v>339.39196909794</v>
       </c>
       <c r="S22">
-        <v>0.03896119644587944</v>
+        <v>0.0004233685364534281</v>
       </c>
       <c r="T22">
-        <v>0.03896119644587944</v>
+        <v>0.0004233685364534281</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>39.03529933333333</v>
+        <v>0.4487969999999999</v>
       </c>
       <c r="H23">
-        <v>117.105898</v>
+        <v>1.346391</v>
       </c>
       <c r="I23">
-        <v>0.3017417102418414</v>
+        <v>0.003337819537557481</v>
       </c>
       <c r="J23">
-        <v>0.3017417102418414</v>
+        <v>0.003337819537557481</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N23">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O23">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P23">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q23">
-        <v>4521.688704751906</v>
+        <v>38.115779732873</v>
       </c>
       <c r="R23">
-        <v>40695.19834276715</v>
+        <v>343.042017595857</v>
       </c>
       <c r="S23">
-        <v>0.06201366865142661</v>
+        <v>0.0004279217251887256</v>
       </c>
       <c r="T23">
-        <v>0.06201366865142661</v>
+        <v>0.0004279217251887256</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>39.03529933333333</v>
+        <v>0.4487969999999999</v>
       </c>
       <c r="H24">
-        <v>117.105898</v>
+        <v>1.346391</v>
       </c>
       <c r="I24">
-        <v>0.3017417102418414</v>
+        <v>0.003337819537557481</v>
       </c>
       <c r="J24">
-        <v>0.3017417102418414</v>
+        <v>0.003337819537557481</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N24">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O24">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P24">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q24">
-        <v>2271.342512284542</v>
+        <v>28.710003508529</v>
       </c>
       <c r="R24">
-        <v>20442.08261056088</v>
+        <v>258.390031576761</v>
       </c>
       <c r="S24">
-        <v>0.03115081358933152</v>
+        <v>0.0003223240956277311</v>
       </c>
       <c r="T24">
-        <v>0.03115081358933152</v>
+        <v>0.0003223240956277311</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>39.03529933333333</v>
+        <v>0.4487969999999999</v>
       </c>
       <c r="H25">
-        <v>117.105898</v>
+        <v>1.346391</v>
       </c>
       <c r="I25">
-        <v>0.3017417102418414</v>
+        <v>0.003337819537557481</v>
       </c>
       <c r="J25">
-        <v>0.3017417102418414</v>
+        <v>0.003337819537557481</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N25">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O25">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P25">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q25">
-        <v>2981.754408523598</v>
+        <v>48.034315505657</v>
       </c>
       <c r="R25">
-        <v>26835.78967671238</v>
+        <v>432.308839550913</v>
       </c>
       <c r="S25">
-        <v>0.04089390976777967</v>
+        <v>0.0005392760505883781</v>
       </c>
       <c r="T25">
-        <v>0.04089390976777967</v>
+        <v>0.0005392760505883781</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,31 +2016,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.008067</v>
+        <v>0.03409466666666667</v>
       </c>
       <c r="H26">
-        <v>0.024201</v>
+        <v>0.102284</v>
       </c>
       <c r="I26">
-        <v>6.235767159705997E-05</v>
+        <v>0.0002535708672885733</v>
       </c>
       <c r="J26">
-        <v>6.235767159705999E-05</v>
+        <v>0.0002535708672885733</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N26">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O26">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P26">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q26">
-        <v>0.7647503980169998</v>
+        <v>6.029815591880889</v>
       </c>
       <c r="R26">
-        <v>6.882753582153</v>
+        <v>54.268340326928</v>
       </c>
       <c r="S26">
-        <v>1.048833320476778E-05</v>
+        <v>6.769608568238664E-05</v>
       </c>
       <c r="T26">
-        <v>1.048833320476779E-05</v>
+        <v>6.769608568238664E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,31 +2078,31 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.008067</v>
+        <v>0.03409466666666667</v>
       </c>
       <c r="H27">
-        <v>0.024201</v>
+        <v>0.102284</v>
       </c>
       <c r="I27">
-        <v>6.235767159705997E-05</v>
+        <v>0.0002535708672885733</v>
       </c>
       <c r="J27">
-        <v>6.235767159705999E-05</v>
+        <v>0.0002535708672885733</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>436.924088</v>
       </c>
       <c r="O27">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P27">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q27">
-        <v>1.174888872632</v>
+        <v>4.965593712999111</v>
       </c>
       <c r="R27">
-        <v>10.573999853688</v>
+        <v>44.690343416992</v>
       </c>
       <c r="S27">
-        <v>1.611326519958799E-05</v>
+        <v>5.574818206907254E-05</v>
       </c>
       <c r="T27">
-        <v>1.6113265199588E-05</v>
+        <v>5.574818206907254E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,31 +2140,31 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
         <v>27</v>
       </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
       <c r="E28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.008067</v>
+        <v>0.03409466666666667</v>
       </c>
       <c r="H28">
-        <v>0.024201</v>
+        <v>0.102284</v>
       </c>
       <c r="I28">
-        <v>6.235767159705997E-05</v>
+        <v>0.0002535708672885733</v>
       </c>
       <c r="J28">
-        <v>6.235767159705999E-05</v>
+        <v>0.0002535708672885733</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N28">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O28">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P28">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q28">
-        <v>0.5870837553679999</v>
+        <v>2.864808230728889</v>
       </c>
       <c r="R28">
-        <v>5.283753798312</v>
+        <v>25.78327407656</v>
       </c>
       <c r="S28">
-        <v>8.051685963645728E-06</v>
+        <v>3.216289130171135E-05</v>
       </c>
       <c r="T28">
-        <v>8.05168596364573E-06</v>
+        <v>3.216289130171135E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,31 +2202,31 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.008067</v>
+        <v>0.03409466666666667</v>
       </c>
       <c r="H29">
-        <v>0.024201</v>
+        <v>0.102284</v>
       </c>
       <c r="I29">
-        <v>6.235767159705997E-05</v>
+        <v>0.0002535708672885733</v>
       </c>
       <c r="J29">
-        <v>6.235767159705999E-05</v>
+        <v>0.0002535708672885733</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N29">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O29">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P29">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q29">
-        <v>0.9344481380749999</v>
+        <v>2.895618296763112</v>
       </c>
       <c r="R29">
-        <v>8.410033242675</v>
+        <v>26.060564670868</v>
       </c>
       <c r="S29">
-        <v>1.281568922372446E-05</v>
+        <v>3.250879257155137E-05</v>
       </c>
       <c r="T29">
-        <v>1.281568922372446E-05</v>
+        <v>3.250879257155137E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,31 +2264,31 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.008067</v>
+        <v>0.03409466666666667</v>
       </c>
       <c r="H30">
-        <v>0.024201</v>
+        <v>0.102284</v>
       </c>
       <c r="I30">
-        <v>6.235767159705997E-05</v>
+        <v>0.0002535708672885733</v>
       </c>
       <c r="J30">
-        <v>6.235767159705999E-05</v>
+        <v>0.0002535708672885733</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N30">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O30">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P30">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q30">
-        <v>0.4693936093619999</v>
+        <v>2.181070728240444</v>
       </c>
       <c r="R30">
-        <v>4.224542484257999</v>
+        <v>19.629636554164</v>
       </c>
       <c r="S30">
-        <v>6.437599237532955E-06</v>
+        <v>2.448664451647913E-05</v>
       </c>
       <c r="T30">
-        <v>6.437599237532957E-06</v>
+        <v>2.448664451647913E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,31 +2326,31 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.008067</v>
+        <v>0.03409466666666667</v>
       </c>
       <c r="H31">
-        <v>0.024201</v>
+        <v>0.102284</v>
       </c>
       <c r="I31">
-        <v>6.235767159705997E-05</v>
+        <v>0.0002535708672885733</v>
       </c>
       <c r="J31">
-        <v>6.235767159705999E-05</v>
+        <v>0.0002535708672885733</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,400 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N31">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O31">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P31">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q31">
-        <v>0.61620669559</v>
+        <v>3.649119703845778</v>
       </c>
       <c r="R31">
-        <v>5.54586026031</v>
+        <v>32.842077334612</v>
       </c>
       <c r="S31">
-        <v>8.451098767801051E-06</v>
+        <v>4.096827114737225E-05</v>
       </c>
       <c r="T31">
-        <v>8.451098767801054E-06</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G32">
-        <v>0.1030903333333333</v>
-      </c>
-      <c r="H32">
-        <v>0.309271</v>
-      </c>
-      <c r="I32">
-        <v>0.0007968852300522431</v>
-      </c>
-      <c r="J32">
-        <v>0.0007968852300522432</v>
-      </c>
-      <c r="K32">
-        <v>3</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>94.79985099999999</v>
-      </c>
-      <c r="N32">
-        <v>284.399553</v>
-      </c>
-      <c r="O32">
-        <v>0.1681963571786456</v>
-      </c>
-      <c r="P32">
-        <v>0.1681963571786456</v>
-      </c>
-      <c r="Q32">
-        <v>9.772948239540332</v>
-      </c>
-      <c r="R32">
-        <v>87.956534155863</v>
-      </c>
-      <c r="S32">
-        <v>0.0001340331927842543</v>
-      </c>
-      <c r="T32">
-        <v>0.0001340331927842543</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G33">
-        <v>0.1030903333333333</v>
-      </c>
-      <c r="H33">
-        <v>0.309271</v>
-      </c>
-      <c r="I33">
-        <v>0.0007968852300522431</v>
-      </c>
-      <c r="J33">
-        <v>0.0007968852300522432</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>145.6413626666667</v>
-      </c>
-      <c r="N33">
-        <v>436.924088</v>
-      </c>
-      <c r="O33">
-        <v>0.2584006873076977</v>
-      </c>
-      <c r="P33">
-        <v>0.2584006873076977</v>
-      </c>
-      <c r="Q33">
-        <v>15.01421662442755</v>
-      </c>
-      <c r="R33">
-        <v>135.127949619848</v>
-      </c>
-      <c r="S33">
-        <v>0.0002059156911508524</v>
-      </c>
-      <c r="T33">
-        <v>0.0002059156911508525</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G34">
-        <v>0.1030903333333333</v>
-      </c>
-      <c r="H34">
-        <v>0.309271</v>
-      </c>
-      <c r="I34">
-        <v>0.0007968852300522431</v>
-      </c>
-      <c r="J34">
-        <v>0.0007968852300522432</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>72.77597066666667</v>
-      </c>
-      <c r="N34">
-        <v>218.327912</v>
-      </c>
-      <c r="O34">
-        <v>0.1291210168281098</v>
-      </c>
-      <c r="P34">
-        <v>0.1291210168281098</v>
-      </c>
-      <c r="Q34">
-        <v>7.502499074683556</v>
-      </c>
-      <c r="R34">
-        <v>67.522491672152</v>
-      </c>
-      <c r="S34">
-        <v>0.0001028946311996479</v>
-      </c>
-      <c r="T34">
-        <v>0.0001028946311996479</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G35">
-        <v>0.1030903333333333</v>
-      </c>
-      <c r="H35">
-        <v>0.309271</v>
-      </c>
-      <c r="I35">
-        <v>0.0007968852300522431</v>
-      </c>
-      <c r="J35">
-        <v>0.0007968852300522432</v>
-      </c>
-      <c r="K35">
-        <v>3</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>115.8358916666667</v>
-      </c>
-      <c r="N35">
-        <v>347.507675</v>
-      </c>
-      <c r="O35">
-        <v>0.2055190467427377</v>
-      </c>
-      <c r="P35">
-        <v>0.2055190467427377</v>
-      </c>
-      <c r="Q35">
-        <v>11.94156068388056</v>
-      </c>
-      <c r="R35">
-        <v>107.474046154925</v>
-      </c>
-      <c r="S35">
-        <v>0.0001637750928437042</v>
-      </c>
-      <c r="T35">
-        <v>0.0001637750928437043</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G36">
-        <v>0.1030903333333333</v>
-      </c>
-      <c r="H36">
-        <v>0.309271</v>
-      </c>
-      <c r="I36">
-        <v>0.0007968852300522431</v>
-      </c>
-      <c r="J36">
-        <v>0.0007968852300522432</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>58.18688599999999</v>
-      </c>
-      <c r="N36">
-        <v>174.560658</v>
-      </c>
-      <c r="O36">
-        <v>0.10323668399826</v>
-      </c>
-      <c r="P36">
-        <v>0.10323668399826</v>
-      </c>
-      <c r="Q36">
-        <v>5.998505473368667</v>
-      </c>
-      <c r="R36">
-        <v>53.986549260318</v>
-      </c>
-      <c r="S36">
-        <v>8.226778867778416E-05</v>
-      </c>
-      <c r="T36">
-        <v>8.226778867778419E-05</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G37">
-        <v>0.1030903333333333</v>
-      </c>
-      <c r="H37">
-        <v>0.309271</v>
-      </c>
-      <c r="I37">
-        <v>0.0007968852300522431</v>
-      </c>
-      <c r="J37">
-        <v>0.0007968852300522432</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>76.38610333333334</v>
-      </c>
-      <c r="N37">
-        <v>229.15831</v>
-      </c>
-      <c r="O37">
-        <v>0.1355262079445491</v>
-      </c>
-      <c r="P37">
-        <v>0.1355262079445491</v>
-      </c>
-      <c r="Q37">
-        <v>7.874668854667779</v>
-      </c>
-      <c r="R37">
-        <v>70.87201969201001</v>
-      </c>
-      <c r="S37">
-        <v>0.0001079988333960001</v>
-      </c>
-      <c r="T37">
-        <v>0.0001079988333960002</v>
+        <v>4.096827114737225E-05</v>
       </c>
     </row>
   </sheetData>
